--- a/outputs-r202/g__UBA4372.xlsx
+++ b/outputs-r202/g__UBA4372.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT12"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,6 +665,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -809,6 +814,11 @@
           <t>s__UBA4372 sp902803195</t>
         </is>
       </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp902803195(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -953,6 +963,11 @@
           <t>s__UBA4372 sp900316355</t>
         </is>
       </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900316355</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1097,6 +1112,11 @@
           <t>s__UBA4372 sp902803195</t>
         </is>
       </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp902803195(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1241,6 +1261,11 @@
           <t>s__UBA4372 sp900318115</t>
         </is>
       </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900318115</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1385,6 +1410,11 @@
           <t>s__UBA4372 sp900320565</t>
         </is>
       </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900320565</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1529,6 +1559,11 @@
           <t>s__UBA4372 sp900320715</t>
         </is>
       </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900320715(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1673,6 +1708,11 @@
           <t>s__UBA4372 sp900320435</t>
         </is>
       </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900320435</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1817,6 +1857,11 @@
           <t>s__UBA4372 sp900320565</t>
         </is>
       </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900320565</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1961,6 +2006,11 @@
           <t>s__UBA4372 sp900313335</t>
         </is>
       </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900313335</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2105,6 +2155,11 @@
           <t>s__UBA4372 sp900313705</t>
         </is>
       </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp900313705</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2247,6 +2302,11 @@
       <c r="AT12" t="inlineStr">
         <is>
           <t>s__UBA4372 sp902802815</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>s__UBA4372 sp902802815(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/g__UBA4372.xlsx
+++ b/outputs-r202/g__UBA4372.xlsx
@@ -674,894 +674,894 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG192.fasta</t>
+          <t>RUG178.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625394e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>1.193172792748608e-05</v>
+        <v>4.691508258600603e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.67114633862513e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625129e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>2.390264881965281e-08</v>
+        <v>1.210771110120827e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9994025372677868</v>
+        <v>3.600222507793387e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0002016720884748952</v>
+        <v>0.1769936543097246</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.739698102134244e-07</v>
+        <v>2.456884837504654e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.312683866921354e-06</v>
+        <v>3.265380582356884e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="T2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="U2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="V2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.341586780414074e-08</v>
+        <v>0.6051291101596857</v>
       </c>
       <c r="AE2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AG2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625128e-13</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0003822349428398825</v>
+        <v>0.07692892398309173</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>2.671146338625126e-13</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.220416108231229e-14</v>
+        <v>0.1408672861544106</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.9994025372677868</v>
+        <v>0.6051291101596857</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900316355</t>
+          <t>s__UBA4372 sp902779165</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900316355</t>
+          <t>s__UBA4372 sp902779165(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG367.fasta</t>
+          <t>RUG192.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="F3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="G3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001640780681453836</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>2.110402647027449e-07</v>
+        <v>1.193172792748608e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="K3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="L3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="M3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>3.453602795620915e-11</v>
+        <v>2.390264881965281e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>0.9994025372677868</v>
       </c>
       <c r="P3" t="n">
-        <v>0.998062418747434</v>
+        <v>0.0002016720884748952</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.432056161097766e-09</v>
+        <v>2.739698102134244e-07</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0008910641352116032</v>
+        <v>1.312683866921354e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="T3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="U3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="V3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="X3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>1.341586780414074e-08</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.000882226541552969</v>
+        <v>0.0003822349428398825</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AO3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AR3" t="n">
-        <v>2.220347366912673e-14</v>
+        <v>2.220416108231229e-14</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.998062418747434</v>
+        <v>0.9994025372677868</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900318115</t>
+          <t>s__UBA4372 sp900316355</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900318115</t>
+          <t>s__UBA4372 sp900316355</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG569.fasta</t>
+          <t>RUG315.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>1.611885447744012e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>9.430905955791013e-09</v>
+        <v>5.877296605179232e-07</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>3.39310844497622e-05</v>
+        <v>4.763788188760698e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.532587434086277e-09</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>1.212966802203726e-06</v>
+        <v>0.08390480343880166</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0009460613587787926</v>
+        <v>2.563511790264004e-09</v>
       </c>
       <c r="R4" t="n">
-        <v>0.999018741459788</v>
+        <v>1.336930754408724e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.205221332524597e-10</v>
+        <v>0.02156732948542578</v>
       </c>
       <c r="AE4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.204538871441814e-08</v>
+        <v>0.002503608685034864</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AL4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>0.8845849529486398</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>2.221052774576646e-14</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.220395526897189e-14</v>
+        <v>0.007425341075248395</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.999018741459788</v>
+        <v>0.8845849529486398</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900320565</t>
+          <t>s__UBA4372 sp902799985</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900320565</t>
+          <t>s__UBA4372 sp902799985</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG606.fasta</t>
+          <t>RUG367.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="G5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="H5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>0.0001640780681453836</v>
       </c>
       <c r="I5" t="n">
-        <v>8.065996886829744e-09</v>
+        <v>2.110402647027449e-07</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="M5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="N5" t="n">
-        <v>7.970866041485128e-05</v>
+        <v>3.453602795620915e-11</v>
       </c>
       <c r="O5" t="n">
-        <v>5.194982804093098e-10</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="P5" t="n">
-        <v>3.899481650970394e-07</v>
+        <v>0.998062418747434</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0005389846975422688</v>
+        <v>1.432056161097766e-09</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9993808665554158</v>
+        <v>0.0008910641352116032</v>
       </c>
       <c r="S5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="U5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="V5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AB5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.583494099662157e-10</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AE5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AG5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AI5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.129384006721983e-08</v>
+        <v>0.000882226541552969</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AL5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AM5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AO5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.220414137346039e-14</v>
+        <v>2.220347366912673e-14</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.9993808665554158</v>
+        <v>0.998062418747434</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900320565</t>
+          <t>s__UBA4372 sp900318115</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900320565</t>
+          <t>s__UBA4372 sp900318115</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG795.fasta</t>
+          <t>RUG569.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="I6" t="n">
-        <v>1.523759153986535e-07</v>
+        <v>9.430905955791013e-09</v>
       </c>
       <c r="J6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="K6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="L6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9918786047268771</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="N6" t="n">
-        <v>1.567860955479211e-10</v>
+        <v>3.39310844497622e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>1.532587434086277e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>2.269727391490077e-06</v>
+        <v>1.212966802203726e-06</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>0.0009460613587787926</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>0.999018741459788</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="T6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>1.205221332524597e-10</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AI6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.008118973012186382</v>
+        <v>4.204538871441814e-08</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.22021016523482e-14</v>
+        <v>2.220395526897189e-14</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.9918786047268771</v>
+        <v>0.999018741459788</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313335</t>
+          <t>s__UBA4372 sp900320565</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313335</t>
+          <t>s__UBA4372 sp900320565</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG837.fasta</t>
+          <t>RUG577.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492407e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492407e-14</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492668e-14</v>
       </c>
       <c r="I7" t="n">
-        <v>7.211696699498045e-10</v>
+        <v>2.124087524566454e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492398e-14</v>
       </c>
       <c r="K7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492407e-14</v>
       </c>
       <c r="L7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492407e-14</v>
       </c>
       <c r="M7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492393e-14</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4999291174111304</v>
+        <v>6.474355389630195e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>3.272183954455212e-10</v>
+        <v>3.59766402244028e-11</v>
       </c>
       <c r="P7" t="n">
-        <v>1.033906119954046e-08</v>
+        <v>0.06294389984858657</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.592385504840993e-09</v>
+        <v>8.637347880192098e-08</v>
       </c>
       <c r="R7" t="n">
-        <v>3.578347385961377e-06</v>
+        <v>5.985932044452056e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="U7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="V7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.418639541682958e-07</v>
+        <v>0.8694644608471814</v>
       </c>
       <c r="AE7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AH7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492392e-14</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492383e-14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6.16684498981506e-05</v>
+        <v>0.01771246655092843</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492386e-14</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.5000049799470416</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AO7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AP7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>7.350499598492395e-14</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.220454837352212e-14</v>
+        <v>0.04985121209852027</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.5000049799470416</v>
+        <v>0.8694644608471814</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902799985</t>
+          <t>s__UBA4372 sp902779165</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902799985(reject)</t>
+          <t>s__UBA4372 sp902779165</t>
         </is>
       </c>
     </row>
@@ -1572,136 +1572,136 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>1.317781140480522e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>1.317781140480522e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.526922542079884e-12</v>
+        <v>0.0004882209542886961</v>
       </c>
       <c r="I8" t="n">
-        <v>1.365906202990434e-05</v>
+        <v>8.49635112286722e-10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>1.317781140480522e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>1.317781140480521e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.012549849352513e-12</v>
+        <v>3.580619026806027e-08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.682177093538854e-06</v>
+        <v>3.425984730333424e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>8.356548346699306e-12</v>
+        <v>8.666754422440898e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>1.305834252586495e-08</v>
+        <v>6.942478796538111e-12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6760203505346607</v>
+        <v>0.5417725518953772</v>
       </c>
       <c r="R8" t="n">
-        <v>5.563775539919013e-10</v>
+        <v>5.686864950674181e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.311936944081452e-08</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.317781140480519e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.317781140480519e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.317781140480519e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.317781140480519e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AI8" t="n">
-        <v>1.31778114048052e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.3239582814748815</v>
+        <v>0.4577391332754766</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.317781140480478e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AL8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.31778114048048e-13</v>
+        <v>2.220439212966238e-14</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.6760203505346607</v>
+        <v>0.5417725518953772</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900320435</t>
+          <t>s__UBA4372 sp900320435(reject)</t>
         </is>
       </c>
     </row>
@@ -1721,136 +1721,136 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="D9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="F9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="I9" t="n">
-        <v>2.699301929462443e-08</v>
+        <v>8.065996886829744e-09</v>
       </c>
       <c r="J9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="L9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="M9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002863311274019271</v>
+        <v>7.970866041485128e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>8.90095117006586e-10</v>
+        <v>5.194982804093098e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>7.309113592244206e-08</v>
+        <v>3.899481650970394e-07</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0002956992958342668</v>
+        <v>0.0005389846975422688</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9994176676712631</v>
+        <v>0.9993808665554158</v>
       </c>
       <c r="S9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="T9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="V9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.145599386466221e-09</v>
+        <v>2.583494099662157e-10</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AH9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AI9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.97784873869113e-07</v>
+        <v>4.129384006721983e-08</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.22071505997777e-14</v>
+        <v>2.220414137346039e-14</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.9994176676712631</v>
+        <v>0.9993808665554158</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -1870,136 +1870,136 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="G10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="I10" t="n">
-        <v>3.750015000873112e-07</v>
+        <v>1.523759153986535e-07</v>
       </c>
       <c r="J10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="K10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="L10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="M10" t="n">
-        <v>0.9931708408222845</v>
+        <v>0.9918786047268771</v>
       </c>
       <c r="N10" t="n">
-        <v>7.088704849477783e-14</v>
+        <v>1.567860955479211e-10</v>
       </c>
       <c r="O10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="P10" t="n">
-        <v>5.221753653346538e-07</v>
+        <v>2.269727391490077e-06</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="R10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="S10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="T10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="U10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="V10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AB10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AE10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AH10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.006828261999935594</v>
+        <v>0.008118973012186382</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.220212858897342e-14</v>
+        <v>2.22021016523482e-14</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9931708408222845</v>
+        <v>0.9918786047268771</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2019,145 +2019,145 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>6.363047766499302e-09</v>
+        <v>7.211696699498045e-10</v>
       </c>
       <c r="J11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="K11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="M11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="N11" t="n">
-        <v>0.999892600369144</v>
+        <v>0.4999291174111304</v>
       </c>
       <c r="O11" t="n">
-        <v>2.285108100775634e-08</v>
+        <v>3.272183954455212e-10</v>
       </c>
       <c r="P11" t="n">
-        <v>4.295378489450474e-09</v>
+        <v>1.033906119954046e-08</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.452442014568055e-07</v>
+        <v>2.592385504840993e-09</v>
       </c>
       <c r="R11" t="n">
-        <v>2.229054603453453e-06</v>
+        <v>3.578347385961377e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.097035056977146e-07</v>
+        <v>6.418639541682958e-07</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0001043821182610662</v>
+        <v>6.16684498981506e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>0.5000049799470416</v>
       </c>
       <c r="AO11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.22071155162843e-14</v>
+        <v>2.220454837352212e-14</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.999892600369144</v>
+        <v>0.5000049799470416</v>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp902799985</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp900313705</t>
+          <t>s__UBA4372 sp902799985(reject)</t>
         </is>
       </c>
     </row>
@@ -2168,145 +2168,145 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.287495288440321e-11</v>
+        <v>0.02272518837195902</v>
       </c>
       <c r="C12" t="n">
-        <v>7.287495288440321e-11</v>
+        <v>0.02272518837195902</v>
       </c>
       <c r="D12" t="n">
-        <v>7.287495288440346e-11</v>
+        <v>0.02272518837195903</v>
       </c>
       <c r="E12" t="n">
-        <v>7.287495288440346e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="F12" t="n">
-        <v>7.287495288440346e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1856026215939025</v>
+        <v>0.03649752946985149</v>
       </c>
       <c r="H12" t="n">
-        <v>7.287495288440321e-11</v>
+        <v>0.02272518837195895</v>
       </c>
       <c r="I12" t="n">
-        <v>0.125844361742032</v>
+        <v>0.02298185924168937</v>
       </c>
       <c r="J12" t="n">
-        <v>7.287495288440345e-11</v>
+        <v>0.02272518837195896</v>
       </c>
       <c r="K12" t="n">
-        <v>7.287495288440336e-11</v>
+        <v>0.02272518837195902</v>
       </c>
       <c r="L12" t="n">
-        <v>7.287495288440336e-11</v>
+        <v>0.02272518837195902</v>
       </c>
       <c r="M12" t="n">
-        <v>7.28749528845181e-11</v>
+        <v>0.0227251883719938</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1792093128133106</v>
+        <v>0.02435859163149895</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007558856344534676</v>
+        <v>0.02273676544977727</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001120870005312296</v>
+        <v>0.02272541253378484</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1765049697618943</v>
+        <v>0.02968002210831241</v>
       </c>
       <c r="R12" t="n">
-        <v>7.287495288445075e-11</v>
+        <v>0.02272518837196601</v>
       </c>
       <c r="S12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="T12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="U12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="V12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="W12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="X12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.28749528844032e-11</v>
+        <v>0.02272518837195907</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.001236219498033658</v>
+        <v>0.02272555333452416</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.28749528844032e-11</v>
+        <v>0.02272518837195905</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.287495288440319e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.287495288440303e-11</v>
+        <v>0.02272518837195901</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1383289471741068</v>
+        <v>0.02291267321195311</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.287495288440306e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AM12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AP12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.1856026215939054</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AR12" t="n">
-        <v>7.287495288440314e-11</v>
+        <v>0.02272518837195906</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1856026215939054</v>
+        <v>0.03649752946985149</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902802815</t>
+          <t>s__UBA4372 sp002391275</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>s__UBA4372 sp902802815(reject)</t>
+          <t>s__UBA4372 sp002391275(reject)</t>
         </is>
       </c>
     </row>
